--- a/biology/Microbiologie/Corynebacterium/Corynebacterium.xlsx
+++ b/biology/Microbiologie/Corynebacterium/Corynebacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corynebacterium (en français les Corynébactéries) sont un genre de bacilles Gram positif de la famille des Corynebacteriaceae. Ces bactéries sont très répandues dans l'environnement (air, sol, eau douce), chez l'animal (volailles, poissons) et l'être humain où elles abondent dans le microbiote cutané et dans certaines muqueuses.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-Ces bactéries sont de forme irrégulière, en général de forme renflée à une extrémité (en massue). Leur mode de groupement particulier (en V, N, L ou en idéogrammes, en palissades) témoigne de leur division par fission binaire inégale. De plus, ils possèdent des granulations métachromatiques mises en évidence par la coloration d'Albert (absence de coloration).
-Culture
-Les Corynebacterium sont peu exigeants : ils sont cultivés sur milieu ordinaire et certaines espèces préférentiellement sur gélose au sang, donnant des colonies de type R sans relief.
-Certaines espèces sont lipophiles (elles nécessitent des lipides pour leur croissance).
-Caractères biochimiques
-Ils possèdent une catalase et sont, pour la plupart, aéro-anaérobies facultatifs. Certaines espèces sont anaérobies strictes, notamment C. acnes (Propionibacterium acnes) et C. minutissimum. L'identification s'effectue par les méthodes habituelles (API Coryne, Vitek2, spectrométrie de masse).
-Leur paroi contient de l'acide méso-diaminopimélique (méso-DAP) comme acide aminé de jonction dans son peptidoglycane[réf. nécessaire]. Les principaux glucides présents dans la paroi sont l'arabinose et le galactose[réf. nécessaire]. Les acides gras cellulaires sont majoritairement les suivants : 18,1 ; 16 et 18,0[réf. nécessaire]. Leur GC% est compris entre 51 et 63.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces bactéries sont de forme irrégulière, en général de forme renflée à une extrémité (en massue). Leur mode de groupement particulier (en V, N, L ou en idéogrammes, en palissades) témoigne de leur division par fission binaire inégale. De plus, ils possèdent des granulations métachromatiques mises en évidence par la coloration d'Albert (absence de coloration).
 </t>
         </is>
       </c>
@@ -546,48 +557,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Corynebacterium sont peu exigeants : ils sont cultivés sur milieu ordinaire et certaines espèces préférentiellement sur gélose au sang, donnant des colonies de type R sans relief.
+Certaines espèces sont lipophiles (elles nécessitent des lipides pour leur croissance).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corynebacterium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corynebacterium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractères biochimiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils possèdent une catalase et sont, pour la plupart, aéro-anaérobies facultatifs. Certaines espèces sont anaérobies strictes, notamment C. acnes (Propionibacterium acnes) et C. minutissimum. L'identification s'effectue par les méthodes habituelles (API Coryne, Vitek2, spectrométrie de masse).
+Leur paroi contient de l'acide méso-diaminopimélique (méso-DAP) comme acide aminé de jonction dans son peptidoglycane[réf. nécessaire]. Les principaux glucides présents dans la paroi sont l'arabinose et le galactose[réf. nécessaire]. Les acides gras cellulaires sont majoritairement les suivants : 18,1 ; 16 et 18,0[réf. nécessaire]. Leur GC% est compris entre 51 et 63.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corynebacterium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corynebacterium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Corynebacterium diphteriae l'agent de la diphtérie, une toxi-infection gravissime due à la production de la toxine diphtérique.
 Corynebacterium ulcerans responsable de suppurations chez les diabétiques. Certaines souches produisent la toxine diphtérique.
 Corynebacterium minutissimum : responsable de l'érythème des plis (érythrasma), bien sensible aux macrolides
 responsable des trichobactérioses
-Les corynébactéries sont souvent des agents de souillure des hémocultures. Il faut discuter de leur implication dans une bactériémie éventuelle en fonction de l'espèce (Corynebacterium jeikeium, Corynebacterium striatum[1] et les souches de Corynebactéries du groupe G qui sont des agents d'endocardite) et du contexte clinique (patient avec cathéter veineux ou artériel, chambre implantable).
+Les corynébactéries sont souvent des agents de souillure des hémocultures. Il faut discuter de leur implication dans une bactériémie éventuelle en fonction de l'espèce (Corynebacterium jeikeium, Corynebacterium striatum et les souches de Corynebactéries du groupe G qui sont des agents d'endocardite) et du contexte clinique (patient avec cathéter veineux ou artériel, chambre implantable).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Corynebacterium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Corynebacterium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Espèces validement publiées
-Selon la LPSN  (26 novembre 2022)[2] :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces validement publiées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (26 novembre 2022) :
 Corynebacterium accolens Neubauer et al. 1991
 Corynebacterium afermentans Riegel et al. 1993
 Corynebacterium alimapuense Claverias et al. 2019
@@ -726,8 +820,43 @@
 Corynebacterium xerosis (Lehmann &amp; Neumann 1896) Lehmann &amp; Neumann 1899
 Corynebacterium yudongzhengii Zhu et al. 2020
 Corynebacterium zhongnanshanii Zhang et al. 2021
-Espèces reclassées (synonymes)
-Selon la LPSN  (26 novembre 2022)[2] les espèces suivantes ont été reclassées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corynebacterium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corynebacterium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces reclassées (synonymes)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (26 novembre 2022) les espèces suivantes ont été reclassées :
 Corynebacterium betae Keyworth et al. 1956 : reclassée en Curtobacterium flaccumfaciens (Hedges 1922) Collins &amp; Jones 1984
 Corynebacterium equi Magnusson 1923 : reclassée en Rhodococcus equi (Magnusson 1923) Goodfellow &amp; Alderson 1977
 Corynebacterium fascians (Tilford 1936) Dowson 1942 : reclassée en Rhodococcus fascians (Tilford 1936) Goodfellow 1984
